--- a/stud_data/ST2.xlsx
+++ b/stud_data/ST2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,26 @@
           <t>07-04-2025 Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>09-04-2025 Status</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>09-04-2025 Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>10-04-2025 Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>10-04-2025 Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,6 +504,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -509,6 +549,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -534,6 +594,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -559,6 +639,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +684,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -609,6 +729,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -634,6 +774,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -659,6 +819,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -684,6 +864,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -709,6 +909,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -734,6 +954,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -759,6 +999,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -784,6 +1044,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -809,6 +1089,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -834,6 +1134,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -859,6 +1179,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -884,6 +1224,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -909,6 +1269,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -934,6 +1314,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -959,6 +1359,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -984,6 +1404,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1009,6 +1449,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1034,6 +1494,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1059,6 +1539,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1084,6 +1584,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1109,6 +1629,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1134,6 +1674,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1159,6 +1719,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1184,6 +1764,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1209,6 +1809,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1234,6 +1854,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1259,6 +1899,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1284,6 +1944,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1309,6 +1989,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1334,6 +2034,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1359,6 +2079,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1384,6 +2124,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1409,6 +2169,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1434,6 +2214,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1459,6 +2259,26 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1480,6 +2300,26 @@
         </is>
       </c>
       <c r="E42" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
